--- a/Tarea - Carolina Burgos Pérez.xlsx
+++ b/Tarea - Carolina Burgos Pérez.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -368,13 +368,16 @@
   <si>
     <t>• Crear un nuevo método en la clase que usa más método con el código del método usado. El método original llamara al método de la otra clase.
 • Si esto se encuentra en una subclase, mejor enviar el método a su clase padre.</t>
+  </si>
+  <si>
+    <t>https://github.com/CarolinaBurgos/Refactoring/tree/master/Comentarios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +404,22 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -470,10 +489,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -499,44 +519,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -839,8 +864,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -856,48 +881,48 @@
   <sheetData>
     <row r="1" spans="2:8" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="F2" s="10" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="F2" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="4" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="14"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="2:8" ht="155.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -918,7 +943,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -934,7 +959,7 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:8" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -950,7 +975,7 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:8" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
@@ -966,7 +991,7 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:8" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -975,32 +1000,32 @@
       <c r="D10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="2:8" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="2:8" ht="129" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1015,10 +1040,13 @@
       <c r="F12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" spans="2:8" ht="191.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="16"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1034,7 +1062,7 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:8" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1050,7 +1078,7 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="2:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -1059,32 +1087,32 @@
       <c r="D15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="9" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="2:8" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="13"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="2:7" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -1102,14 +1130,14 @@
       <c r="G17" s="4"/>
     </row>
     <row r="20" spans="2:7" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1126,8 +1154,11 @@
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B11"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G12" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Tarea - Carolina Burgos Pérez.xlsx
+++ b/Tarea - Carolina Burgos Pérez.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -343,23 +343,6 @@
     <t>Se tiene varias secciones de códigos idénticos.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">BIBLIOGRAFÍA
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Code Smells. (s.f.). Recuperado el 04 de 08 de 2018, de https://refactoring.guru/refactoring/smells
-Refactoring. (s.f.). Recuperado el 04 de 08 de 2018, de https://sourcemaking.com/refactoring</t>
-    </r>
-  </si>
-  <si>
     <t>Una clase usa atributos y métodos de otra clase más que los propios.</t>
   </si>
   <si>
@@ -370,7 +353,22 @@
 • Si esto se encuentra en una subclase, mejor enviar el método a su clase padre.</t>
   </si>
   <si>
-    <t>https://github.com/CarolinaBurgos/Refactoring/tree/master/Comentarios</t>
+    <t>EJEMPLOS PROPIOS</t>
+  </si>
+  <si>
+    <t>BIBLIOGRAFÍA</t>
+  </si>
+  <si>
+    <t>Code Smells. (s.f.). Recuperado el 04 de 08 de 2018, de https://refactoring.guru/refactoring/smells</t>
+  </si>
+  <si>
+    <t>Código duplicado. (s.f.). Recuperado el 04 de 08 de 2018, de https://es.wikipedia.org/wiki/C%C3%B3digo_duplicado</t>
+  </si>
+  <si>
+    <t>Refactoring. (s.f.). Recuperado el 04 de 08 de 2018, de https://sourcemaking.com/refactoring</t>
+  </si>
+  <si>
+    <t>• Comments (Comentarios)</t>
   </si>
 </sst>
 </file>
@@ -493,7 +491,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -528,12 +526,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -555,10 +551,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -862,10 +879,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B1:H20"/>
+  <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1040,10 +1057,8 @@
       <c r="F12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="22"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="2:8" ht="191.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
@@ -1059,7 +1074,7 @@
       <c r="F13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="2:8" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
@@ -1091,7 +1106,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G15" s="7"/>
     </row>
@@ -1104,10 +1119,10 @@
         <v>31</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G16" s="7"/>
     </row>
@@ -1129,19 +1144,76 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="20" spans="2:7" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+    <row r="20" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="25"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="26"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+    </row>
+    <row r="24" spans="2:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="17">
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
     <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B24:G24"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B4:B5"/>
@@ -1154,11 +1226,8 @@
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B11"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="G12" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Tarea - Carolina Burgos Pérez.xlsx
+++ b/Tarea - Carolina Burgos Pérez.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -334,9 +334,6 @@
     <t>Una clase solo contiene atributos con sus respectivos getters y setters. Clase con ninguna otra funcionalidad adicional.</t>
   </si>
   <si>
-    <t>• Para datos almacenados en colecciones, cree elementos para crear y eliminar valores de la colección.</t>
-  </si>
-  <si>
     <t>Un método accede a los atributos de otros objetos más que al propio.</t>
   </si>
   <si>
@@ -369,6 +366,22 @@
   </si>
   <si>
     <t>• Comments (Comentarios)</t>
+  </si>
+  <si>
+    <t>https://github.com/CarolinaBurgos/Refactoring/tree/master/DuplicateCode</t>
+  </si>
+  <si>
+    <t>https://github.com/CarolinaBurgos/Refactoring/tree/master/Comments</t>
+  </si>
+  <si>
+    <t>https://github.com/CarolinaBurgos/Refactoring/tree/master/DataClass</t>
+  </si>
+  <si>
+    <t>• Para datos públicos, hacerlos privados y así se podrá acceder a estos mediante los métodos getters y setters.
+• Para datos almacenados en colecciones, cree elementos para crear y eliminar valores de la colección y mantenga solo el método getter .</t>
+  </si>
+  <si>
+    <t>• Data Class (Clase de datos)</t>
   </si>
 </sst>
 </file>
@@ -491,7 +504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -502,18 +515,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -530,6 +537,30 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -551,30 +582,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -881,8 +890,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -898,48 +907,48 @@
   <sheetData>
     <row r="1" spans="2:8" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="F2" s="19" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="F2" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="19"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="4" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="17"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="2:8" ht="155.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -954,13 +963,13 @@
       <c r="F6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="3"/>
       <c r="H6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="14"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -973,10 +982,10 @@
       <c r="F7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:8" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="14"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -989,10 +998,10 @@
       <c r="F8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="2:8" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1005,44 +1014,44 @@
       <c r="F9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="2:8" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="2:8" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="20"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="2:8" ht="129" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1057,11 +1066,13 @@
       <c r="F12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
+      <c r="G12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="2:8" ht="191.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="14"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1069,15 +1080,17 @@
         <v>29</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="12"/>
+      <c r="G13" s="10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="2:8" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="14"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1088,49 +1101,51 @@
         <v>56</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="2:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="2:8" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="21"/>
+      <c r="C16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="2:8" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
-      <c r="C16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="2:7" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1142,78 +1157,74 @@
       <c r="F17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="20" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="24" spans="2:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="25"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="26"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-    </row>
-    <row r="24" spans="2:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="29" t="s">
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="22" t="s">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="22" t="s">
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B24:G24"/>
+  <mergeCells count="18">
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B4:B5"/>
@@ -1225,9 +1236,19 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B22:C22"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G14" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Tarea - Carolina Burgos Pérez.xlsx
+++ b/Tarea - Carolina Burgos Pérez.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -382,6 +382,12 @@
   </si>
   <si>
     <t>• Data Class (Clase de datos)</t>
+  </si>
+  <si>
+    <t>https://github.com/CarolinaBurgos/Refactoring/tree/master/LongMethod</t>
+  </si>
+  <si>
+    <t>Long Method Examples . (s.f.). Recuperado el 04 de 08 de 2018, de https://users.encs.concordia.ca/~nikolaos/jdeodorant/index.php?option=com_content&amp;view=article&amp;id=83:long-method-examples&amp;catid=36:examples&amp;Itemid=78</t>
   </si>
 </sst>
 </file>
@@ -504,7 +510,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -540,6 +546,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -561,29 +588,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -888,10 +897,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B1:H27"/>
+  <dimension ref="B1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="B18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -907,48 +916,48 @@
   <sheetData>
     <row r="1" spans="2:8" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="F2" s="25" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="F2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="25"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="4" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="23"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="2:8" ht="155.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -963,13 +972,15 @@
       <c r="F6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="H6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="20"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -985,7 +996,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:8" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="20"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1001,7 +1012,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="2:8" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="20"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1017,7 +1028,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="2:8" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1035,7 +1046,7 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="2:8" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="26"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1051,7 +1062,7 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="2:8" ht="129" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1072,7 +1083,7 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="2:8" ht="191.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="20"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1090,7 +1101,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="20"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1108,7 +1119,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1126,7 +1137,7 @@
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="2:8" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="21"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1141,7 +1152,7 @@
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="2:7" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>32</v>
       </c>
@@ -1159,72 +1170,97 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="20" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="15" t="s">
+    <row r="20" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="17" t="s">
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="27" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="24" spans="2:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="18" t="s">
+    <row r="24" spans="2:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="13" t="s">
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="13" t="s">
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="14" t="s">
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="28"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B27:M27"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B4:B5"/>
@@ -1236,19 +1272,13 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G14" r:id="rId1"/>
+    <hyperlink ref="G6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Tarea - Carolina Burgos Pérez.xlsx
+++ b/Tarea - Carolina Burgos Pérez.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -388,6 +388,12 @@
   </si>
   <si>
     <t>Long Method Examples . (s.f.). Recuperado el 04 de 08 de 2018, de https://users.encs.concordia.ca/~nikolaos/jdeodorant/index.php?option=com_content&amp;view=article&amp;id=83:long-method-examples&amp;catid=36:examples&amp;Itemid=78</t>
+  </si>
+  <si>
+    <t>https://github.com/CarolinaBurgos/Refactoring/tree/master/FeatureEnvy</t>
+  </si>
+  <si>
+    <t>Feature Envy Examples. (s.f.). Recuperado el 04 de 08 de 2018, de https://elearning.industriallogic.com/gh/submit?Action=PageAction&amp;album=recognizingSmells&amp;path=recognizingSmells/featureEnvy/featureEnvyExample&amp;devLanguage=Java</t>
   </si>
 </sst>
 </file>
@@ -510,7 +516,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -546,6 +552,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -567,32 +600,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -897,10 +906,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B1:N28"/>
+  <dimension ref="B1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,48 +925,48 @@
   <sheetData>
     <row r="1" spans="2:8" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="F2" s="18" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="18"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="4" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="16"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="2:8" ht="155.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -980,7 +989,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="13"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -996,7 +1005,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:8" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="13"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1012,7 +1021,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="2:8" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="13"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1028,7 +1037,7 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="2:8" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1046,7 +1055,7 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="2:8" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="19"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1062,7 +1071,7 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="2:8" ht="129" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1083,7 +1092,7 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="2:8" ht="191.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1101,7 +1110,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1119,7 +1128,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1134,10 +1143,12 @@
       <c r="F15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="29" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="16" spans="2:8" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="14"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1171,96 +1182,104 @@
       <c r="G17" s="3"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="24"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="27"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="12"/>
     </row>
     <row r="24" spans="2:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="28"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="21" t="s">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="13"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B27:M27"/>
+  <mergeCells count="20">
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B4:B5"/>
@@ -1272,13 +1291,23 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B28:M28"/>
+    <mergeCell ref="B27:M27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G14" r:id="rId1"/>
     <hyperlink ref="G6" r:id="rId2"/>
+    <hyperlink ref="G15" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Tarea - Carolina Burgos Pérez.xlsx
+++ b/Tarea - Carolina Burgos Pérez.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -394,6 +394,12 @@
   </si>
   <si>
     <t>Feature Envy Examples. (s.f.). Recuperado el 04 de 08 de 2018, de https://elearning.industriallogic.com/gh/submit?Action=PageAction&amp;album=recognizingSmells&amp;path=recognizingSmells/featureEnvy/featureEnvyExample&amp;devLanguage=Java</t>
+  </si>
+  <si>
+    <t>https://github.com/CarolinaBurgos/Refactoring/tree/master/DataClumps</t>
+  </si>
+  <si>
+    <t>Data Clump (Code Smell). (s.f.). Recuperado el 04 de 08 de 2018, de https://en.wikipedia.org/wiki/Data_Clump_(Code_Smell)</t>
   </si>
 </sst>
 </file>
@@ -555,6 +561,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -578,30 +608,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -906,10 +912,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B1:N29"/>
+  <dimension ref="B1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B28" sqref="B28:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,48 +931,48 @@
   <sheetData>
     <row r="1" spans="2:8" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="27"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="4" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="25"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="2:8" ht="155.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -989,7 +995,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="22"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1005,7 +1011,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:8" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="22"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1021,7 +1027,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="2:8" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="22"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1034,10 +1040,12 @@
       <c r="F9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="10" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="10" spans="2:8" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1055,7 +1063,7 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="2:8" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="28"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1071,7 +1079,7 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="2:8" ht="129" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1092,7 +1100,7 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="2:8" ht="191.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="22"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1110,7 +1118,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="22"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1128,7 +1136,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1143,12 +1151,12 @@
       <c r="F15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="23"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1182,104 +1190,125 @@
       <c r="G17" s="3"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="12"/>
     </row>
     <row r="24" spans="2:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="14" t="s">
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="13"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="15" t="s">
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="13"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B29:M29"/>
+    <mergeCell ref="B28:M28"/>
+    <mergeCell ref="B27:H27"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B4:B5"/>
@@ -1291,23 +1320,15 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B28:M28"/>
-    <mergeCell ref="B27:M27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G14" r:id="rId1"/>
     <hyperlink ref="G6" r:id="rId2"/>
     <hyperlink ref="G15" r:id="rId3"/>
+    <hyperlink ref="G9" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/Tarea - Carolina Burgos Pérez.xlsx
+++ b/Tarea - Carolina Burgos Pérez.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -400,6 +400,12 @@
   </si>
   <si>
     <t>Data Clump (Code Smell). (s.f.). Recuperado el 04 de 08 de 2018, de https://en.wikipedia.org/wiki/Data_Clump_(Code_Smell)</t>
+  </si>
+  <si>
+    <t>https://github.com/CarolinaBurgos/Refactoring/tree/master/RefusedBequest</t>
+  </si>
+  <si>
+    <t>Mcfadyen, G. (19 de 01 de 2017). Common Code Smells. Recuperado el 06 de 08 de 2018, de https://8thlight.com/blog/georgina-mcfadyen/2017/01/19/common-code-smells.html</t>
   </si>
 </sst>
 </file>
@@ -522,7 +528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -564,6 +570,30 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -586,28 +616,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -912,10 +921,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B1:N30"/>
+  <dimension ref="B1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:M28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -931,48 +940,48 @@
   <sheetData>
     <row r="1" spans="2:8" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="F2" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="20"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="4" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="2:8" ht="155.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -995,7 +1004,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="15"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1011,7 +1020,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:8" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="15"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1027,7 +1036,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="2:8" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1045,7 +1054,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1063,7 +1072,7 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="2:8" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="21"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1076,10 +1085,12 @@
       <c r="F11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="2:8" ht="129" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1100,7 +1111,7 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="2:8" ht="191.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1118,7 +1129,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="15"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1136,7 +1147,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1156,7 +1167,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="16"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1190,125 +1201,155 @@
       <c r="G17" s="3"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="26"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="29"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="12"/>
     </row>
     <row r="24" spans="2:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
       <c r="N29" s="13"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="13"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B29:M29"/>
-    <mergeCell ref="B28:M28"/>
-    <mergeCell ref="B27:H27"/>
+  <mergeCells count="22">
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B4:B5"/>
@@ -1320,15 +1361,27 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B29:M29"/>
+    <mergeCell ref="B28:M28"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="B31:M31"/>
+    <mergeCell ref="B27:M27"/>
+    <mergeCell ref="B26:M26"/>
+    <mergeCell ref="B25:M25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G14" r:id="rId1"/>
     <hyperlink ref="G6" r:id="rId2"/>
     <hyperlink ref="G15" r:id="rId3"/>
     <hyperlink ref="G9" r:id="rId4"/>
+    <hyperlink ref="G11" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/Tarea - Carolina Burgos Pérez.xlsx
+++ b/Tarea - Carolina Burgos Pérez.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -402,10 +402,13 @@
     <t>Data Clump (Code Smell). (s.f.). Recuperado el 04 de 08 de 2018, de https://en.wikipedia.org/wiki/Data_Clump_(Code_Smell)</t>
   </si>
   <si>
-    <t>https://github.com/CarolinaBurgos/Refactoring/tree/master/RefusedBequest</t>
-  </si>
-  <si>
     <t>Mcfadyen, G. (19 de 01 de 2017). Common Code Smells. Recuperado el 06 de 08 de 2018, de https://8thlight.com/blog/georgina-mcfadyen/2017/01/19/common-code-smells.html</t>
+  </si>
+  <si>
+    <t>https://github.com/CarolinaBurgos/Refactoring/tree/master/RefusedRequest</t>
+  </si>
+  <si>
+    <t>https://github.com/CarolinaBurgos/Refactoring/tree/master/PrimitiveObsession</t>
   </si>
 </sst>
 </file>
@@ -570,50 +573,50 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -923,8 +926,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -940,48 +943,48 @@
   <sheetData>
     <row r="1" spans="2:8" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="F2" s="28" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="28"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="4" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="26"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="2:8" ht="155.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1004,7 +1007,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1020,7 +1023,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:8" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1033,10 +1036,12 @@
       <c r="F8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="10" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="9" spans="2:8" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="23"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1054,7 +1059,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1072,7 +1077,7 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="2:8" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="29"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1086,11 +1091,11 @@
         <v>51</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="129" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1111,7 +1116,7 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="2:8" ht="191.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="23"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1129,7 +1134,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="23"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1147,7 +1152,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1167,7 +1172,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="24"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1201,38 +1206,38 @@
       <c r="G17" s="3"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="22"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="12"/>
     </row>
     <row r="24" spans="2:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="30" t="s">
@@ -1251,105 +1256,116 @@
       <c r="M25" s="30"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
       <c r="N29" s="13"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
+      <c r="B30" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
       <c r="N30" s="13"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="B31:M31"/>
+    <mergeCell ref="B27:M27"/>
+    <mergeCell ref="B26:M26"/>
+    <mergeCell ref="B25:M25"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B29:M29"/>
+    <mergeCell ref="B28:M28"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B4:B5"/>
@@ -1361,17 +1377,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B29:M29"/>
-    <mergeCell ref="B28:M28"/>
-    <mergeCell ref="B30:M30"/>
-    <mergeCell ref="B31:M31"/>
-    <mergeCell ref="B27:M27"/>
-    <mergeCell ref="B26:M26"/>
-    <mergeCell ref="B25:M25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G14" r:id="rId1"/>
@@ -1379,9 +1384,10 @@
     <hyperlink ref="G15" r:id="rId3"/>
     <hyperlink ref="G9" r:id="rId4"/>
     <hyperlink ref="G11" r:id="rId5"/>
+    <hyperlink ref="G8" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/Tarea - Carolina Burgos Pérez.xlsx
+++ b/Tarea - Carolina Burgos Pérez.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -409,6 +409,12 @@
   </si>
   <si>
     <t>https://github.com/CarolinaBurgos/Refactoring/tree/master/PrimitiveObsession</t>
+  </si>
+  <si>
+    <t>Code smells Inappropriate intimacy with example. (25 de 11 de 2014). Recuperado el 06 de 08 de 2018, de http://siloracle.blogspot.com/2014/11/code-smells-inappropriate-intimacy-with.html</t>
+  </si>
+  <si>
+    <t>https://github.com/CarolinaBurgos/Refactoring/tree/master/InappropriateIntimacy</t>
   </si>
 </sst>
 </file>
@@ -573,6 +579,33 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -593,33 +626,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -924,10 +930,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B1:N31"/>
+  <dimension ref="B1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="B18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -943,48 +949,48 @@
   <sheetData>
     <row r="1" spans="2:8" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="F2" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="20"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="4" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="25" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="2:8" ht="155.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1007,7 +1013,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="15"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1023,7 +1029,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:8" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="15"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1041,7 +1047,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1059,7 +1065,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="30" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1077,7 +1083,7 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="2:8" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="21"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1095,7 +1101,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="129" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1116,7 +1122,7 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="2:8" ht="191.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1134,7 +1140,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="15"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1152,7 +1158,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1172,7 +1178,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="16"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1185,7 +1191,9 @@
       <c r="F16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="17" spans="2:14" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
@@ -1206,166 +1214,171 @@
       <c r="G17" s="3"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="24"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="27"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="12"/>
     </row>
     <row r="24" spans="2:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="28" t="s">
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="28" t="s">
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="28" t="s">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="13"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="28" t="s">
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="13"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="13"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="29" t="s">
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="13"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B30:M30"/>
-    <mergeCell ref="B31:M31"/>
-    <mergeCell ref="B27:M27"/>
-    <mergeCell ref="B26:M26"/>
-    <mergeCell ref="B25:M25"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B29:M29"/>
-    <mergeCell ref="B28:M28"/>
+  <mergeCells count="23">
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B4:B5"/>
@@ -1377,6 +1390,18 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="B29:M29"/>
+    <mergeCell ref="B26:M26"/>
+    <mergeCell ref="B31:M31"/>
+    <mergeCell ref="B32:M32"/>
+    <mergeCell ref="B28:M28"/>
+    <mergeCell ref="B27:M27"/>
+    <mergeCell ref="B25:M25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G14" r:id="rId1"/>
@@ -1385,9 +1410,10 @@
     <hyperlink ref="G9" r:id="rId4"/>
     <hyperlink ref="G11" r:id="rId5"/>
     <hyperlink ref="G8" r:id="rId6"/>
+    <hyperlink ref="G16" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/Tarea - Carolina Burgos Pérez.xlsx
+++ b/Tarea - Carolina Burgos Pérez.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -415,6 +415,12 @@
   </si>
   <si>
     <t>https://github.com/CarolinaBurgos/Refactoring/tree/master/InappropriateIntimacy</t>
+  </si>
+  <si>
+    <t>Mitra, S. (16 de 09 de 2016). The Shotgun Surgery Code Smell. Recuperado el 06 de 08 de 2018, de https://dzone.com/articles/code-smell-shot-surgery</t>
+  </si>
+  <si>
+    <t>https://github.com/CarolinaBurgos/Refactoring/tree/master/ShotgunSurgery</t>
   </si>
 </sst>
 </file>
@@ -537,7 +543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -580,6 +586,48 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -587,45 +635,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -930,10 +939,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B1:N32"/>
+  <dimension ref="B1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:M26"/>
+      <selection activeCell="B27" sqref="B27:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -949,48 +958,48 @@
   <sheetData>
     <row r="1" spans="2:8" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="F2" s="29" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="F2" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="29"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="4" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="27"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="2:8" ht="155.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1013,7 +1022,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1029,7 +1038,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:8" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1047,7 +1056,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="24"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1065,7 +1074,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1083,7 +1092,7 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="2:8" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="30"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1101,7 +1110,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="129" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1122,7 +1131,7 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="2:8" ht="191.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="24"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1140,7 +1149,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="24"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1158,7 +1167,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1178,7 +1187,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="25"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1211,174 +1220,206 @@
       <c r="F17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="10" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="23"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="12"/>
     </row>
     <row r="24" spans="2:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
       <c r="N30" s="13"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
       <c r="N31" s="13"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="15"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B33" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
+    <mergeCell ref="B31:M31"/>
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="B28:M28"/>
+    <mergeCell ref="B27:M27"/>
+    <mergeCell ref="B25:M25"/>
+    <mergeCell ref="B32:M32"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="B29:M29"/>
+    <mergeCell ref="B26:M26"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B4:B5"/>
@@ -1390,18 +1431,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B30:M30"/>
-    <mergeCell ref="B29:M29"/>
-    <mergeCell ref="B26:M26"/>
-    <mergeCell ref="B31:M31"/>
-    <mergeCell ref="B32:M32"/>
-    <mergeCell ref="B28:M28"/>
-    <mergeCell ref="B27:M27"/>
-    <mergeCell ref="B25:M25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G14" r:id="rId1"/>
@@ -1411,9 +1440,10 @@
     <hyperlink ref="G11" r:id="rId5"/>
     <hyperlink ref="G8" r:id="rId6"/>
     <hyperlink ref="G16" r:id="rId7"/>
+    <hyperlink ref="G17" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/Tarea - Carolina Burgos Pérez.xlsx
+++ b/Tarea - Carolina Burgos Pérez.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>https://github.com/CarolinaBurgos/Refactoring/tree/master/ShotgunSurgery</t>
+  </si>
+  <si>
+    <t>Swich Statement code smell and Polymorphism . (19 de 08 de 2016). Recuperado el 06 de 08 de 2018, de https://hanuska.blogspot.com/2006/08/swich-statement-code-smell-and.html</t>
   </si>
 </sst>
 </file>
@@ -543,7 +546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -588,6 +591,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,32 +639,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -939,10 +945,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B1:N33"/>
+  <dimension ref="B1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:M27"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -958,48 +964,48 @@
   <sheetData>
     <row r="1" spans="2:8" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="F2" s="21" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="F2" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="21"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="4" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="26" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="19"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="2:8" ht="155.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1022,7 +1028,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1038,7 +1044,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:8" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1056,7 +1062,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1074,7 +1080,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1092,7 +1098,7 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="2:8" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="22"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1110,7 +1116,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="129" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1131,7 +1137,7 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="2:8" ht="191.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="16"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1149,7 +1155,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1167,7 +1173,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1187,7 +1193,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="17"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1225,201 +1231,205 @@
       </c>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="28"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="12"/>
     </row>
     <row r="24" spans="2:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
       <c r="N30" s="13"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
       <c r="N31" s="13"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
       <c r="N32" s="15"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B34" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="B31:M31"/>
-    <mergeCell ref="B33:M33"/>
-    <mergeCell ref="B28:M28"/>
-    <mergeCell ref="B27:M27"/>
-    <mergeCell ref="B25:M25"/>
-    <mergeCell ref="B32:M32"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B30:M30"/>
-    <mergeCell ref="B29:M29"/>
-    <mergeCell ref="B26:M26"/>
+  <mergeCells count="25">
+    <mergeCell ref="B34:M34"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B4:B5"/>
@@ -1431,6 +1441,19 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="B29:M29"/>
+    <mergeCell ref="B26:M26"/>
+    <mergeCell ref="B31:M31"/>
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="B28:M28"/>
+    <mergeCell ref="B27:M27"/>
+    <mergeCell ref="B25:M25"/>
+    <mergeCell ref="B32:M32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G14" r:id="rId1"/>

--- a/Tarea - Carolina Burgos Pérez.xlsx
+++ b/Tarea - Carolina Burgos Pérez.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -424,6 +424,9 @@
   </si>
   <si>
     <t>Swich Statement code smell and Polymorphism . (19 de 08 de 2016). Recuperado el 06 de 08 de 2018, de https://hanuska.blogspot.com/2006/08/swich-statement-code-smell-and.html</t>
+  </si>
+  <si>
+    <t>https://github.com/CarolinaBurgos/Refactoring/tree/master/SwitchStatements</t>
   </si>
 </sst>
 </file>
@@ -591,6 +594,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -599,48 +644,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -947,8 +950,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -964,48 +967,48 @@
   <sheetData>
     <row r="1" spans="2:8" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="F2" s="30" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="F2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="30"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="4" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="28"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="2:8" ht="155.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1028,7 +1031,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="25"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1044,7 +1047,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:8" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="25"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1062,7 +1065,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="25"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1080,7 +1083,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1095,10 +1098,12 @@
       <c r="F10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="14" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="11" spans="2:8" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="31"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1116,7 +1121,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="129" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1137,7 +1142,7 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="2:8" ht="191.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="25"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1155,7 +1160,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="25"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1173,7 +1178,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1193,7 +1198,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="26"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1231,204 +1236,213 @@
       </c>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="24"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="12"/>
     </row>
     <row r="24" spans="2:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
       <c r="N30" s="13"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
       <c r="N31" s="13"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
       <c r="N32" s="15"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B25:M25"/>
+    <mergeCell ref="B32:M32"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="B29:M29"/>
+    <mergeCell ref="B26:M26"/>
+    <mergeCell ref="B31:M31"/>
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="B28:M28"/>
+    <mergeCell ref="B27:M27"/>
     <mergeCell ref="B34:M34"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B16"/>
@@ -1445,15 +1459,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B30:M30"/>
-    <mergeCell ref="B29:M29"/>
-    <mergeCell ref="B26:M26"/>
-    <mergeCell ref="B31:M31"/>
-    <mergeCell ref="B33:M33"/>
-    <mergeCell ref="B28:M28"/>
-    <mergeCell ref="B27:M27"/>
-    <mergeCell ref="B25:M25"/>
-    <mergeCell ref="B32:M32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G14" r:id="rId1"/>
@@ -1464,9 +1469,10 @@
     <hyperlink ref="G8" r:id="rId6"/>
     <hyperlink ref="G16" r:id="rId7"/>
     <hyperlink ref="G17" r:id="rId8"/>
+    <hyperlink ref="G10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/Tarea - Carolina Burgos Pérez.xlsx
+++ b/Tarea - Carolina Burgos Pérez.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Refactoring!$B$4:$D$5</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -37,9 +40,6 @@
   </si>
   <si>
     <t>Long Method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long Class </t>
   </si>
   <si>
     <t>Primitive Obsession</t>
@@ -427,6 +427,12 @@
   </si>
   <si>
     <t>https://github.com/CarolinaBurgos/Refactoring/tree/master/SwitchStatements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large Class </t>
+  </si>
+  <si>
+    <t>• Large Class (Clase Larga)</t>
   </si>
 </sst>
 </file>
@@ -594,53 +600,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -948,10 +954,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B1:N34"/>
+  <dimension ref="B1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -967,343 +973,334 @@
   <sheetData>
     <row r="1" spans="2:8" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="F2" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="22"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="4" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="28"/>
+      <c r="E4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="20"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="2:8" ht="155.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
-        <v>10</v>
+      <c r="B6" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="16"/>
+      <c r="C7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="2:8" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="16"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="16"/>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="17"/>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="2:8" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="17"/>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="17"/>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="F9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="E10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="17"/>
+      <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="129" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="2:8" ht="191.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="16"/>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="23"/>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="129" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17" t="s">
+      <c r="G13" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="16"/>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="2:8" ht="191.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="D15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="28"/>
+      <c r="C16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17"/>
-      <c r="C14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="18"/>
-      <c r="C16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="G16" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="25" spans="2:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="12"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="24" spans="2:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="27" t="s">
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="30" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
@@ -1319,7 +1316,7 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="30" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
@@ -1335,7 +1332,7 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
@@ -1351,7 +1348,7 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
@@ -1364,11 +1361,10 @@
       <c r="K30" s="30"/>
       <c r="L30" s="30"/>
       <c r="M30" s="30"/>
-      <c r="N30" s="13"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="30" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
@@ -1385,7 +1381,7 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
@@ -1398,54 +1394,74 @@
       <c r="K32" s="30"/>
       <c r="L32" s="30"/>
       <c r="M32" s="30"/>
-      <c r="N32" s="15"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
+      <c r="N32" s="13"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B33" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="15"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B34" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B35" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B25:M25"/>
-    <mergeCell ref="B32:M32"/>
-    <mergeCell ref="B30:M30"/>
+  <autoFilter ref="B4:D5">
+    <filterColumn colId="1" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="26">
+    <mergeCell ref="B34:M34"/>
     <mergeCell ref="B29:M29"/>
-    <mergeCell ref="B26:M26"/>
-    <mergeCell ref="B31:M31"/>
-    <mergeCell ref="B33:M33"/>
     <mergeCell ref="B28:M28"/>
-    <mergeCell ref="B27:M27"/>
-    <mergeCell ref="B34:M34"/>
+    <mergeCell ref="B35:M35"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B26:M26"/>
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="B31:M31"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="B27:M27"/>
+    <mergeCell ref="B32:M32"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -1457,8 +1473,9 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
     <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G14" r:id="rId1"/>

--- a/Tarea - Carolina Burgos Pérez.xlsx
+++ b/Tarea - Carolina Burgos Pérez.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -433,6 +433,9 @@
   </si>
   <si>
     <t>• Large Class (Clase Larga)</t>
+  </si>
+  <si>
+    <t>https://github.com/CarolinaBurgos/Refactoring/tree/master/LargeClass</t>
   </si>
 </sst>
 </file>
@@ -600,10 +603,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -623,33 +653,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -956,8 +959,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -973,48 +976,48 @@
   <sheetData>
     <row r="1" spans="2:8" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="F2" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="27"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="4" spans="2:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="25"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="2:8" ht="155.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1037,7 +1040,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="2" t="s">
         <v>87</v>
       </c>
@@ -1050,10 +1053,12 @@
       <c r="F7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="8" spans="2:8" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1071,7 +1076,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1089,7 +1094,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1109,7 +1114,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
@@ -1127,7 +1132,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="129" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1148,7 +1153,7 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="2:8" ht="191.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="16"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1166,7 +1171,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1184,7 +1189,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1204,7 +1209,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="28"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
@@ -1242,214 +1247,228 @@
       </c>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="23"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="12"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="23"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="12"/>
     </row>
     <row r="25" spans="2:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
       <c r="N31" s="13"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
       <c r="N32" s="13"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
       <c r="N33" s="15"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:D5">
     <filterColumn colId="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="26">
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="B34:M34"/>
     <mergeCell ref="B29:M29"/>
     <mergeCell ref="B28:M28"/>
@@ -1462,20 +1481,6 @@
     <mergeCell ref="B30:M30"/>
     <mergeCell ref="B27:M27"/>
     <mergeCell ref="B32:M32"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G14" r:id="rId1"/>
